--- a/Db/Diagram/ESQUEMA BASE DATOS.xlsx
+++ b/Db/Diagram/ESQUEMA BASE DATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://poligran-my.sharepoint.com/personal/degualteros_poligran_edu_co/Documents/1. Administracion de sistemas/6. Semestre/Practica aplicada/ProyectoGitHub/practicaaplicada20172/Db/Diagram/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="A3AC242801D0251CB132CBAB3AB7E18DDFAED709" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{366CD056-DD2A-4D90-834E-43D93AE43559}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="A3AC242801D0251CB132CBAB3AB7E18DDFAED709" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{4D5D305E-1E46-4CA1-A099-9EDA71679C1C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entidades" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="154">
   <si>
     <t>USUARIO</t>
   </si>
@@ -1141,7 +1141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
@@ -2214,9 +2214,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,6 +2374,12 @@
       <c r="B11" s="6" t="s">
         <v>148</v>
       </c>
+      <c r="C11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -2382,6 +2388,12 @@
       <c r="B12" s="6" t="s">
         <v>149</v>
       </c>
+      <c r="C12" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -2390,6 +2402,12 @@
       <c r="B13" s="6" t="s">
         <v>150</v>
       </c>
+      <c r="C13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -2398,6 +2416,12 @@
       <c r="B14" s="6" t="s">
         <v>151</v>
       </c>
+      <c r="C14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -2406,6 +2430,12 @@
       <c r="B15" s="6" t="s">
         <v>152</v>
       </c>
+      <c r="C15" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -2413,6 +2443,12 @@
       </c>
       <c r="B16" s="6" t="s">
         <v>153</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
